--- a/AAM_JQ_TESIS.xlsx
+++ b/AAM_JQ_TESIS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14880" windowHeight="7815" tabRatio="569" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14880" windowHeight="7815" tabRatio="569" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IS-Resumen" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="269">
   <si>
     <t xml:space="preserve">Rol </t>
   </si>
@@ -403,9 +403,6 @@
   </si>
   <si>
     <t xml:space="preserve">IS.2.6 </t>
-  </si>
-  <si>
-    <t>Incorporar la Especificación de Requisitos y el *Manual de Usuario a la Configuración de Software en la LB.</t>
   </si>
   <si>
     <t xml:space="preserve">IS.2.7 </t>
@@ -750,9 +747,6 @@
   </si>
   <si>
     <t>REQ.08</t>
-  </si>
-  <si>
-    <t>REQ.09</t>
   </si>
   <si>
     <t>SBA.01</t>
@@ -1023,6 +1017,47 @@
         <scheme val="minor"/>
       </rPr>
       <t>(Procesos y servicios)</t>
+    </r>
+  </si>
+  <si>
+    <t>Incorporar la Especificación de Requisitos a la Configuración de Software en la LB.</t>
+  </si>
+  <si>
+    <t>Scrum Rol Princ.2</t>
+  </si>
+  <si>
+    <t>Scrum Rol Sec.3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TEAM [AN]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STAKEHOLDER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TEAM [DIS]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STAKEHOLDER</t>
     </r>
   </si>
 </sst>
@@ -1283,6 +1318,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1299,12 +1340,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1627,13 +1662,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="A3:G11" totalsRowShown="0" dataDxfId="43">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="A3:I11" totalsRowShown="0" dataDxfId="43">
+  <tableColumns count="9">
     <tableColumn id="1" name="Nro." dataDxfId="42"/>
     <tableColumn id="2" name="Lista de Tareas" dataDxfId="41"/>
     <tableColumn id="3" name="Rol" dataDxfId="40"/>
-    <tableColumn id="4" name="Scrum Rol Princ." dataDxfId="39"/>
-    <tableColumn id="5" name="Scrum Rol Sec." dataDxfId="38"/>
+    <tableColumn id="9" name="Scrum Rol Princ."/>
+    <tableColumn id="8" name="Scrum Rol Sec."/>
+    <tableColumn id="4" name="Scrum Rol Princ.2" dataDxfId="39"/>
+    <tableColumn id="5" name="Scrum Rol Sec.3" dataDxfId="38"/>
     <tableColumn id="6" name="Productos de entrada" dataDxfId="37"/>
     <tableColumn id="7" name="Productos de salida" dataDxfId="36"/>
   </tableColumns>
@@ -2101,7 +2138,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,15 +2155,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
         <v>95</v>
@@ -2138,10 +2175,10 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -2153,38 +2190,38 @@
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H5" s="19"/>
     </row>
@@ -2193,22 +2230,22 @@
         <v>97</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>96</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>169</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>170</v>
       </c>
       <c r="H6" s="23"/>
     </row>
@@ -2217,25 +2254,25 @@
         <v>99</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>98</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2243,23 +2280,23 @@
         <v>101</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>100</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2267,25 +2304,25 @@
         <v>103</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="11" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2293,7 +2330,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>36</v>
@@ -2302,14 +2339,14 @@
         <v>104</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>173</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,49 +2354,49 @@
         <v>107</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>106</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>108</v>
+        <v>264</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2436,29 +2473,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
-    <col min="7" max="7" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="38.42578125" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -2469,186 +2508,230 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="D5" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B7" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25" t="s">
+      <c r="C7" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="I7" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>215</v>
-      </c>
       <c r="B8" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="I9" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>126</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="25"/>
-      <c r="F10" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>117</v>
+      <c r="F11" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2665,7 +2748,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,7 +2764,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2695,10 +2778,10 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -2709,19 +2792,19 @@
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>55</v>
@@ -2730,128 +2813,128 @@
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>162</v>
+        <v>177</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>161</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>83</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2867,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2884,7 +2967,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2898,10 +2981,10 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -2912,19 +2995,19 @@
     </row>
     <row r="4" spans="1:7" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>55</v>
@@ -2933,216 +3016,216 @@
     </row>
     <row r="5" spans="1:7" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>162</v>
+        <v>177</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>160</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3158,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3176,15 +3259,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
         <v>95</v>
@@ -3196,10 +3279,10 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -3211,38 +3294,38 @@
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H5" s="17"/>
     </row>
@@ -3251,23 +3334,23 @@
         <v>97</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3275,23 +3358,23 @@
         <v>99</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3299,23 +3382,23 @@
         <v>101</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3323,25 +3406,25 @@
         <v>103</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3511,10 +3594,10 @@
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="35" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3531,8 +3614,8 @@
       <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="F10" s="36"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3547,8 +3630,8 @@
       <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="F11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3764,7 +3847,7 @@
         <v>80</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="38" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3779,7 +3862,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="F19" s="37"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -3794,7 +3877,7 @@
       <c r="D20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="37"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -3809,7 +3892,7 @@
       <c r="D21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="37"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -3824,7 +3907,7 @@
       <c r="D22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="37"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3839,7 +3922,7 @@
       <c r="D23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="37"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3854,7 +3937,7 @@
       <c r="D24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="38"/>
+      <c r="F24" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
